--- a/model_test_note.xlsx
+++ b/model_test_note.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\allen\.vscode\Equity_Research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4BB8EFA-76BF-456C-A755-00494028C23E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C92E0A1B-1F1F-494F-8478-383406839F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-3624" yWindow="12852" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>Accuracy</t>
   </si>
@@ -75,12 +75,6 @@
     <t>Format</t>
   </si>
   <si>
-    <t>Task - Extraction</t>
-  </si>
-  <si>
-    <t>Task - Conversion</t>
-  </si>
-  <si>
     <t>GPT-4o-mini</t>
   </si>
   <si>
@@ -91,6 +85,12 @@
   </si>
   <si>
     <t>Gemini-2.5-Flash</t>
+  </si>
+  <si>
+    <t>Task - Extraction Pic</t>
+  </si>
+  <si>
+    <t>Task - Extraction pdf</t>
   </si>
 </sst>
 </file>
@@ -143,8 +143,8 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -425,32 +425,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:K17"/>
+  <dimension ref="B2:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F3" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
@@ -469,10 +471,22 @@
       <c r="I4" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5">
         <v>13</v>
@@ -492,10 +506,22 @@
       <c r="I5">
         <v>2000</v>
       </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="M5">
+        <v>3</v>
+      </c>
+      <c r="N5">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -503,22 +529,34 @@
       <c r="D6">
         <v>8</v>
       </c>
-      <c r="F6" s="3">
-        <v>3</v>
-      </c>
-      <c r="G6" s="3">
-        <v>3</v>
-      </c>
-      <c r="H6" s="3">
-        <v>3</v>
-      </c>
-      <c r="I6" s="3">
+      <c r="F6" s="2">
+        <v>3</v>
+      </c>
+      <c r="G6" s="2">
+        <v>3</v>
+      </c>
+      <c r="H6" s="2">
+        <v>3</v>
+      </c>
+      <c r="I6" s="2">
         <v>250</v>
       </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K6" s="2">
+        <v>3</v>
+      </c>
+      <c r="L6" s="2">
+        <v>3</v>
+      </c>
+      <c r="M6" s="2">
+        <v>3</v>
+      </c>
+      <c r="N6" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -526,20 +564,32 @@
       <c r="D7">
         <v>6</v>
       </c>
-      <c r="F7" s="3">
-        <v>3</v>
-      </c>
-      <c r="G7" s="3">
-        <v>3</v>
-      </c>
-      <c r="H7" s="3">
-        <v>3</v>
-      </c>
-      <c r="I7" s="3">
+      <c r="F7" s="2">
+        <v>3</v>
+      </c>
+      <c r="G7" s="2">
+        <v>3</v>
+      </c>
+      <c r="H7" s="2">
+        <v>3</v>
+      </c>
+      <c r="I7" s="2">
         <v>600</v>
       </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K7" s="3">
+        <v>3</v>
+      </c>
+      <c r="L7" s="3">
+        <v>1</v>
+      </c>
+      <c r="M7" s="3">
+        <v>1</v>
+      </c>
+      <c r="N7" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>11</v>
       </c>
@@ -561,8 +611,20 @@
       <c r="I8">
         <v>1700</v>
       </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>3</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>12</v>
       </c>
@@ -585,7 +647,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>14</v>
       </c>
@@ -607,8 +669,20 @@
       <c r="I10">
         <v>5500</v>
       </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>3</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>4</v>
       </c>
@@ -619,7 +693,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>5</v>
       </c>
@@ -630,7 +704,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>7</v>
       </c>
@@ -640,8 +714,20 @@
       <c r="D14">
         <v>183</v>
       </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>3</v>
+      </c>
+      <c r="M14">
+        <v>3</v>
+      </c>
+      <c r="N14">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>8</v>
       </c>
@@ -652,7 +738,7 @@
         <v>2057</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>9</v>
       </c>
